--- a/biology/Zoologie/Bungarus_flaviceps/Bungarus_flaviceps.xlsx
+++ b/biology/Zoologie/Bungarus_flaviceps/Bungarus_flaviceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bungarus flaviceps ou bongare à tête rouge est une espèce de serpents de la famille des Elapidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bungarus flaviceps ou bongare à tête rouge est une espèce de serpents de la famille des Elapidae. 
 Comme tous les Bungarus, c'est un serpent très venimeux. 
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le bongare à tête rouge vit dans les terres vallonnées de faible altitude.
-Cette espèce se rencontre[1] :
+Cette espèce se rencontre :
 au Viêt Nam ;
 au Cambodge ;
 en Thaïlande ;
@@ -550,11 +564,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bongare à tête rouge a un  corps noir ou gris foncé, une tête et une queue rouge ou orange vif. Il mesure au maximum 2 mètres.
 Ce serpent est actif aussi bien le jour que la nuit, contrairement aux autres serpents du genre Bungarus qui ne sont actifs que la nuit. 
-Il semble qu'il soit beaucoup moins agressif que les autres Bungarus et donc, pour cette raison, qu'il y ait très peu de victimes humaines à déplorer[2].
+Il semble qu'il soit beaucoup moins agressif que les autres Bungarus et donc, pour cette raison, qu'il y ait très peu de victimes humaines à déplorer.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Bungarus flaviceps flaviceps Reinhardt, 1843
 Bungarus flaviceps baluensis Loveridge, 1938</t>
         </is>
@@ -615,7 +633,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1938 : New snakes of the genera Calamaria, Bungarus and Trimeresurus from Mt. Kinabalu, North Borneo. Proceedings of the Biological Society of Washington, vol. 51, p. 43-46 (texte intégral).
 Reinhardt, 1843 : Beskrivelse af nogle nye Slangearter. Det Kongelige Danske videnskabernes Selskabs Skrifter, vol. 10, p. 233-279 (texte intégral).</t>
